--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/17/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/17/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.09775</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2097.75</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.19374</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2193.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>2.26755</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>2267.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>2.30583</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>2305.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>2.35141</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>2351.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>2.38716</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>2387.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>8.92024</v>
+        <v>2.41758</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.24</v>
+        <v>2417.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278804</v>
       </c>
       <c r="B11" t="n">
-        <v>9.9101</v>
+        <v>2.44686</v>
       </c>
       <c r="C11" t="n">
-        <v>9910.1</v>
+        <v>2446.86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309729</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5594</v>
+        <v>2.47319</v>
       </c>
       <c r="C12" t="n">
-        <v>10559.4</v>
+        <v>2473.19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340654</v>
       </c>
       <c r="B13" t="n">
-        <v>11.1876</v>
+        <v>2.49609</v>
       </c>
       <c r="C13" t="n">
-        <v>11187.6</v>
+        <v>2496.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5896</v>
+        <v>2.51759</v>
       </c>
       <c r="C14" t="n">
-        <v>11589.6</v>
+        <v>2517.59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5756</v>
+        <v>2.53707</v>
       </c>
       <c r="C15" t="n">
-        <v>11575.6</v>
+        <v>2537.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5572</v>
+        <v>2.55499</v>
       </c>
       <c r="C16" t="n">
-        <v>11557.2</v>
+        <v>2554.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>11.5218</v>
+        <v>2.57172</v>
       </c>
       <c r="C17" t="n">
-        <v>11521.8</v>
+        <v>2571.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>11.4847</v>
+        <v>2.58718</v>
       </c>
       <c r="C18" t="n">
-        <v>11484.7</v>
+        <v>2587.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>11.4438</v>
+        <v>2.60178</v>
       </c>
       <c r="C19" t="n">
-        <v>11443.8</v>
+        <v>2601.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557125</v>
       </c>
       <c r="B20" t="n">
-        <v>11.4003</v>
+        <v>2.61544</v>
       </c>
       <c r="C20" t="n">
-        <v>11400.3</v>
+        <v>2615.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.58805</v>
       </c>
       <c r="B21" t="n">
-        <v>11.3532</v>
+        <v>2.62828</v>
       </c>
       <c r="C21" t="n">
-        <v>11353.2</v>
+        <v>2628.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619092</v>
       </c>
       <c r="B22" t="n">
-        <v>11.3037</v>
+        <v>2.6405</v>
       </c>
       <c r="C22" t="n">
-        <v>11303.7</v>
+        <v>2640.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650269</v>
       </c>
       <c r="B23" t="n">
-        <v>11.2521</v>
+        <v>2.65218</v>
       </c>
       <c r="C23" t="n">
-        <v>11252.1</v>
+        <v>2652.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>11.1977</v>
+        <v>2.6633</v>
       </c>
       <c r="C24" t="n">
-        <v>11197.7</v>
+        <v>2663.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712614</v>
       </c>
       <c r="B25" t="n">
-        <v>11.1427</v>
+        <v>2.67392</v>
       </c>
       <c r="C25" t="n">
-        <v>11142.7</v>
+        <v>2673.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>11.0861</v>
+        <v>2.68409</v>
       </c>
       <c r="C26" t="n">
-        <v>11086.1</v>
+        <v>2684.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>11.0263</v>
+        <v>2.69386</v>
       </c>
       <c r="C27" t="n">
-        <v>11026.3</v>
+        <v>2693.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>10.9629</v>
+        <v>2.70327</v>
       </c>
       <c r="C28" t="n">
-        <v>10962.9</v>
+        <v>2703.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>10.8959</v>
+        <v>2.71233</v>
       </c>
       <c r="C29" t="n">
-        <v>10895.9</v>
+        <v>2712.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>10.8246</v>
+        <v>2.72109</v>
       </c>
       <c r="C30" t="n">
-        <v>10824.6</v>
+        <v>2721.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>10.7484</v>
+        <v>2.72958</v>
       </c>
       <c r="C31" t="n">
-        <v>10748.4</v>
+        <v>2729.58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>10.6683</v>
+        <v>2.7378</v>
       </c>
       <c r="C32" t="n">
-        <v>10668.3</v>
+        <v>2737.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962008</v>
       </c>
       <c r="B33" t="n">
-        <v>10.5823</v>
+        <v>2.74578</v>
       </c>
       <c r="C33" t="n">
-        <v>10582.3</v>
+        <v>2745.78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993185</v>
       </c>
       <c r="B34" t="n">
-        <v>10.4917</v>
+        <v>2.75352</v>
       </c>
       <c r="C34" t="n">
-        <v>10491.7</v>
+        <v>2753.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02423</v>
       </c>
       <c r="B35" t="n">
-        <v>10.3963</v>
+        <v>2.76107</v>
       </c>
       <c r="C35" t="n">
-        <v>10396.3</v>
+        <v>2761.07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>10.2957</v>
+        <v>2.76843</v>
       </c>
       <c r="C36" t="n">
-        <v>10295.7</v>
+        <v>2768.43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>10.1907</v>
+        <v>2.77558</v>
       </c>
       <c r="C37" t="n">
-        <v>10190.7</v>
+        <v>2775.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11847</v>
+        <v>1.11713</v>
       </c>
       <c r="B38" t="n">
-        <v>9.200450000000002</v>
+        <v>2.78258</v>
       </c>
       <c r="C38" t="n">
-        <v>9200.450000000001</v>
+        <v>2782.58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14919</v>
+        <v>1.1481</v>
       </c>
       <c r="B39" t="n">
-        <v>8.688459999999999</v>
+        <v>2.78939</v>
       </c>
       <c r="C39" t="n">
-        <v>8688.459999999999</v>
+        <v>2789.39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18033</v>
+        <v>1.17907</v>
       </c>
       <c r="B40" t="n">
-        <v>9.92947</v>
+        <v>2.79606</v>
       </c>
       <c r="C40" t="n">
-        <v>9929.469999999999</v>
+        <v>2796.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21129</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>9.377190000000001</v>
+        <v>2.80257</v>
       </c>
       <c r="C41" t="n">
-        <v>9377.190000000001</v>
+        <v>2802.57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24263</v>
+        <v>1.241</v>
       </c>
       <c r="B42" t="n">
-        <v>9.866059999999999</v>
+        <v>2.80894</v>
       </c>
       <c r="C42" t="n">
-        <v>9866.059999999999</v>
+        <v>2808.94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27356</v>
+        <v>1.27197</v>
       </c>
       <c r="B43" t="n">
-        <v>9.67493</v>
+        <v>2.81518</v>
       </c>
       <c r="C43" t="n">
-        <v>9674.93</v>
+        <v>2815.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30447</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>9.58511</v>
+        <v>2.82129</v>
       </c>
       <c r="C44" t="n">
-        <v>9585.110000000001</v>
+        <v>2821.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33572</v>
+        <v>1.33391</v>
       </c>
       <c r="B45" t="n">
-        <v>9.581610000000001</v>
+        <v>2.82727</v>
       </c>
       <c r="C45" t="n">
-        <v>9581.610000000001</v>
+        <v>2827.27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36661</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>9.419979999999999</v>
+        <v>2.83314</v>
       </c>
       <c r="C46" t="n">
-        <v>9419.98</v>
+        <v>2833.14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39723</v>
+        <v>1.39584</v>
       </c>
       <c r="B47" t="n">
-        <v>9.189719999999999</v>
+        <v>2.83888</v>
       </c>
       <c r="C47" t="n">
-        <v>9189.719999999999</v>
+        <v>2838.88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42791</v>
+        <v>1.42681</v>
       </c>
       <c r="B48" t="n">
-        <v>9.13007</v>
+        <v>2.84453</v>
       </c>
       <c r="C48" t="n">
-        <v>9130.07</v>
+        <v>2844.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45896</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>8.90517</v>
+        <v>2.85007</v>
       </c>
       <c r="C49" t="n">
-        <v>8905.17</v>
+        <v>2850.07</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49004</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>8.76638</v>
+        <v>2.85551</v>
       </c>
       <c r="C50" t="n">
-        <v>8766.379999999999</v>
+        <v>2855.51</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52112</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>8.627049999999999</v>
+        <v>2.86083</v>
       </c>
       <c r="C51" t="n">
-        <v>8627.049999999999</v>
+        <v>2860.83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5522</v>
+        <v>1.55068</v>
       </c>
       <c r="B52" t="n">
-        <v>8.476739999999999</v>
+        <v>2.86606</v>
       </c>
       <c r="C52" t="n">
-        <v>8476.74</v>
+        <v>2866.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58302</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>8.274469999999999</v>
+        <v>2.8712</v>
       </c>
       <c r="C53" t="n">
-        <v>8274.469999999999</v>
+        <v>2871.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61421</v>
+        <v>1.61261</v>
       </c>
       <c r="B54" t="n">
-        <v>8.122120000000001</v>
+        <v>2.87624</v>
       </c>
       <c r="C54" t="n">
-        <v>8122.12</v>
+        <v>2876.24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64491</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>7.98886</v>
+        <v>2.88119</v>
       </c>
       <c r="C55" t="n">
-        <v>7988.86</v>
+        <v>2881.19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67625</v>
+        <v>1.67455</v>
       </c>
       <c r="B56" t="n">
-        <v>7.88874</v>
+        <v>2.88606</v>
       </c>
       <c r="C56" t="n">
-        <v>7888.74</v>
+        <v>2886.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70684</v>
+        <v>1.70552</v>
       </c>
       <c r="B57" t="n">
-        <v>7.71291</v>
+        <v>2.89084</v>
       </c>
       <c r="C57" t="n">
-        <v>7712.91</v>
+        <v>2890.84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73823</v>
+        <v>1.73648</v>
       </c>
       <c r="B58" t="n">
-        <v>7.5175</v>
+        <v>2.89554</v>
       </c>
       <c r="C58" t="n">
-        <v>7517.5</v>
+        <v>2895.54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76905</v>
+        <v>1.76745</v>
       </c>
       <c r="B59" t="n">
-        <v>7.40074</v>
+        <v>2.90014</v>
       </c>
       <c r="C59" t="n">
-        <v>7400.74</v>
+        <v>2900.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80008</v>
+        <v>1.79842</v>
       </c>
       <c r="B60" t="n">
-        <v>7.26366</v>
+        <v>2.90466</v>
       </c>
       <c r="C60" t="n">
-        <v>7263.66</v>
+        <v>2904.66</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83123</v>
+        <v>1.82939</v>
       </c>
       <c r="B61" t="n">
-        <v>7.16386</v>
+        <v>2.90908</v>
       </c>
       <c r="C61" t="n">
-        <v>7163.86</v>
+        <v>2909.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86178</v>
+        <v>1.86036</v>
       </c>
       <c r="B62" t="n">
-        <v>6.99703</v>
+        <v>2.91344</v>
       </c>
       <c r="C62" t="n">
-        <v>6997.03</v>
+        <v>2913.44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89334</v>
+        <v>1.89132</v>
       </c>
       <c r="B63" t="n">
-        <v>6.867529999999999</v>
+        <v>2.91772</v>
       </c>
       <c r="C63" t="n">
-        <v>6867.53</v>
+        <v>2917.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9243</v>
+        <v>1.92229</v>
       </c>
       <c r="B64" t="n">
-        <v>6.74765</v>
+        <v>2.92194</v>
       </c>
       <c r="C64" t="n">
-        <v>6747.65</v>
+        <v>2921.94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95488</v>
+        <v>1.95297</v>
       </c>
       <c r="B65" t="n">
-        <v>6.65484</v>
+        <v>2.92607</v>
       </c>
       <c r="C65" t="n">
-        <v>6654.84</v>
+        <v>2926.07</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98645</v>
+        <v>1.98353</v>
       </c>
       <c r="B66" t="n">
-        <v>6.51932</v>
+        <v>2.93015</v>
       </c>
       <c r="C66" t="n">
-        <v>6519.32</v>
+        <v>2930.15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01729</v>
+        <v>2.01408</v>
       </c>
       <c r="B67" t="n">
-        <v>6.414890000000001</v>
+        <v>2.93415</v>
       </c>
       <c r="C67" t="n">
-        <v>6414.89</v>
+        <v>2934.15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04809</v>
+        <v>2.04464</v>
       </c>
       <c r="B68" t="n">
-        <v>6.320720000000001</v>
+        <v>2.93812</v>
       </c>
       <c r="C68" t="n">
-        <v>6320.72</v>
+        <v>2938.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07939</v>
+        <v>2.07519</v>
       </c>
       <c r="B69" t="n">
-        <v>6.236479999999999</v>
+        <v>2.942</v>
       </c>
       <c r="C69" t="n">
-        <v>6236.48</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11048</v>
+        <v>2.10575</v>
       </c>
       <c r="B70" t="n">
-        <v>6.12985</v>
+        <v>2.94583</v>
       </c>
       <c r="C70" t="n">
-        <v>6129.85</v>
+        <v>2945.83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14146</v>
+        <v>2.1363</v>
       </c>
       <c r="B71" t="n">
-        <v>6.04428</v>
+        <v>2.94958</v>
       </c>
       <c r="C71" t="n">
-        <v>6044.28</v>
+        <v>2949.58</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17206</v>
+        <v>2.16685</v>
       </c>
       <c r="B72" t="n">
-        <v>5.9633</v>
+        <v>2.95329</v>
       </c>
       <c r="C72" t="n">
-        <v>5963.3</v>
+        <v>2953.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20356</v>
+        <v>2.19805</v>
       </c>
       <c r="B73" t="n">
-        <v>5.88054</v>
+        <v>2.95701</v>
       </c>
       <c r="C73" t="n">
-        <v>5880.54</v>
+        <v>2957.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23507</v>
+        <v>2.22962</v>
       </c>
       <c r="B74" t="n">
-        <v>5.80454</v>
+        <v>2.96072</v>
       </c>
       <c r="C74" t="n">
-        <v>5804.54</v>
+        <v>2960.72</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26475</v>
+        <v>2.2612</v>
       </c>
       <c r="B75" t="n">
-        <v>5.71861</v>
+        <v>2.96436</v>
       </c>
       <c r="C75" t="n">
-        <v>5718.61</v>
+        <v>2964.36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29606</v>
+        <v>2.29277</v>
       </c>
       <c r="B76" t="n">
-        <v>5.66012</v>
+        <v>2.96796</v>
       </c>
       <c r="C76" t="n">
-        <v>5660.12</v>
+        <v>2967.96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32805</v>
+        <v>2.32434</v>
       </c>
       <c r="B77" t="n">
-        <v>5.58684</v>
+        <v>2.97149</v>
       </c>
       <c r="C77" t="n">
-        <v>5586.84</v>
+        <v>2971.49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35908</v>
+        <v>2.35592</v>
       </c>
       <c r="B78" t="n">
-        <v>5.52634</v>
+        <v>2.97496</v>
       </c>
       <c r="C78" t="n">
-        <v>5526.34</v>
+        <v>2974.96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38896</v>
+        <v>2.38749</v>
       </c>
       <c r="B79" t="n">
-        <v>5.44608</v>
+        <v>2.97837</v>
       </c>
       <c r="C79" t="n">
-        <v>5446.08</v>
+        <v>2978.37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41933</v>
+        <v>2.41906</v>
       </c>
       <c r="B80" t="n">
-        <v>5.39232</v>
+        <v>2.98173</v>
       </c>
       <c r="C80" t="n">
-        <v>5392.32</v>
+        <v>2981.73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44992</v>
+        <v>2.45064</v>
       </c>
       <c r="B81" t="n">
-        <v>5.357130000000001</v>
+        <v>2.98503</v>
       </c>
       <c r="C81" t="n">
-        <v>5357.13</v>
+        <v>2985.03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47842</v>
+        <v>2.48221</v>
       </c>
       <c r="B82" t="n">
-        <v>5.37152</v>
+        <v>2.98827</v>
       </c>
       <c r="C82" t="n">
-        <v>5371.52</v>
+        <v>2988.27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51143</v>
+        <v>2.51379</v>
       </c>
       <c r="B83" t="n">
-        <v>5.35036</v>
+        <v>2.99147</v>
       </c>
       <c r="C83" t="n">
-        <v>5350.36</v>
+        <v>2991.47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54658</v>
+        <v>2.54471</v>
       </c>
       <c r="B84" t="n">
-        <v>5.33491</v>
+        <v>2.99461</v>
       </c>
       <c r="C84" t="n">
-        <v>5334.91</v>
+        <v>2994.61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58057</v>
+        <v>2.57543</v>
       </c>
       <c r="B85" t="n">
-        <v>5.32961</v>
+        <v>2.9977</v>
       </c>
       <c r="C85" t="n">
-        <v>5329.61</v>
+        <v>2997.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61262</v>
+        <v>2.60615</v>
       </c>
       <c r="B86" t="n">
-        <v>5.29558</v>
+        <v>3.00074</v>
       </c>
       <c r="C86" t="n">
-        <v>5295.58</v>
+        <v>3000.74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64463</v>
+        <v>2.63687</v>
       </c>
       <c r="B87" t="n">
-        <v>5.269520000000001</v>
+        <v>3.00372</v>
       </c>
       <c r="C87" t="n">
-        <v>5269.52</v>
+        <v>3003.72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67663</v>
+        <v>2.66759</v>
       </c>
       <c r="B88" t="n">
-        <v>5.25265</v>
+        <v>3.00666</v>
       </c>
       <c r="C88" t="n">
-        <v>5252.65</v>
+        <v>3006.66</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70863</v>
+        <v>2.69832</v>
       </c>
       <c r="B89" t="n">
-        <v>5.23782</v>
+        <v>3.00955</v>
       </c>
       <c r="C89" t="n">
-        <v>5237.82</v>
+        <v>3009.55</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74063</v>
+        <v>2.72903</v>
       </c>
       <c r="B90" t="n">
-        <v>5.202100000000001</v>
+        <v>3.01239</v>
       </c>
       <c r="C90" t="n">
-        <v>5202.1</v>
+        <v>3012.39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77263</v>
+        <v>2.75975</v>
       </c>
       <c r="B91" t="n">
-        <v>5.19172</v>
+        <v>3.01519</v>
       </c>
       <c r="C91" t="n">
-        <v>5191.72</v>
+        <v>3015.19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80463</v>
+        <v>2.79047</v>
       </c>
       <c r="B92" t="n">
-        <v>5.16147</v>
+        <v>3.01793</v>
       </c>
       <c r="C92" t="n">
-        <v>5161.47</v>
+        <v>3017.93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83431</v>
+        <v>2.82119</v>
       </c>
       <c r="B93" t="n">
-        <v>5.1338</v>
+        <v>3.02063</v>
       </c>
       <c r="C93" t="n">
-        <v>5133.8</v>
+        <v>3020.63</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86313</v>
+        <v>2.85191</v>
       </c>
       <c r="B94" t="n">
-        <v>5.08819</v>
+        <v>3.0233</v>
       </c>
       <c r="C94" t="n">
-        <v>5088.19</v>
+        <v>3023.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89194</v>
+        <v>2.88263</v>
       </c>
       <c r="B95" t="n">
-        <v>5.05959</v>
+        <v>3.02592</v>
       </c>
       <c r="C95" t="n">
-        <v>5059.59</v>
+        <v>3025.92</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92075</v>
+        <v>2.91335</v>
       </c>
       <c r="B96" t="n">
-        <v>5.056340000000001</v>
+        <v>3.0285</v>
       </c>
       <c r="C96" t="n">
-        <v>5056.34</v>
+        <v>3028.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94955</v>
+        <v>2.94407</v>
       </c>
       <c r="B97" t="n">
-        <v>5.02533</v>
+        <v>3.03104</v>
       </c>
       <c r="C97" t="n">
-        <v>5025.33</v>
+        <v>3031.04</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97835</v>
+        <v>2.97479</v>
       </c>
       <c r="B98" t="n">
-        <v>4.995850000000001</v>
+        <v>3.03354</v>
       </c>
       <c r="C98" t="n">
-        <v>4995.85</v>
+        <v>3033.54</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00715</v>
+        <v>3.00551</v>
       </c>
       <c r="B99" t="n">
-        <v>4.9662</v>
+        <v>3.03599</v>
       </c>
       <c r="C99" t="n">
-        <v>4966.2</v>
+        <v>3035.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03595</v>
+        <v>3.03623</v>
       </c>
       <c r="B100" t="n">
-        <v>4.92827</v>
+        <v>3.03842</v>
       </c>
       <c r="C100" t="n">
-        <v>4928.27</v>
+        <v>3038.42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06475</v>
+        <v>3.06695</v>
       </c>
       <c r="B101" t="n">
-        <v>4.93103</v>
+        <v>3.04079</v>
       </c>
       <c r="C101" t="n">
-        <v>4931.03</v>
+        <v>3040.79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09355</v>
+        <v>3.09767</v>
       </c>
       <c r="B102" t="n">
-        <v>4.88572</v>
+        <v>3.04313</v>
       </c>
       <c r="C102" t="n">
-        <v>4885.72</v>
+        <v>3043.13</v>
       </c>
     </row>
   </sheetData>
